--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_5_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1265009.820290938</v>
+        <v>-1267090.561684236</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2365544.372062217</v>
+        <v>2365544.372062216</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>174.1552958834841</v>
+        <v>214.7783761041941</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>80.67893250494039</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>163.7539218963198</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>51.47427571028325</v>
       </c>
       <c r="E4" t="n">
-        <v>135.1613884042816</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,67 +902,67 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>117.3840086103613</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>209.7773163590851</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.097100052852153</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>144.0576027644701</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>222.6908602868995</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>160.5574085125199</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>48.8594567347326</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871616</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>142.3870695882588</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.91438626613415</v>
+        <v>413.9143862661342</v>
       </c>
       <c r="H8" t="n">
         <v>325.2563498869366</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>50.59334853207343</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>149.2994920791963</v>
+        <v>177.3830154996371</v>
       </c>
       <c r="T8" t="n">
-        <v>217.0183419716299</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2345848079164</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>17.63499247702103</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.6006837567287</v>
       </c>
       <c r="H9" t="n">
         <v>105.061237389684</v>
       </c>
       <c r="I9" t="n">
-        <v>63.82100898789192</v>
+        <v>63.82100898789186</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>35.56417937106164</v>
+        <v>54.03700212563233</v>
       </c>
       <c r="S9" t="n">
         <v>157.8853663825613</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>114.423948138427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>11.81429504077356</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>95.89668408033756</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>56.92790437843516</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8.985366452204381</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>130.1835909194916</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>280.9377015860165</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>249.7727942831273</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>3.658918749019676</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>145.2632865001172</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D25" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>21.00012137584653</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G25" t="n">
-        <v>42.07752412276503</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>267.836266855725</v>
       </c>
       <c r="V25" t="n">
-        <v>233.7365577809756</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>268.1219127937387</v>
@@ -2542,7 +2542,7 @@
         <v>207.3085698461848</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>158.1845384517841</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G28" t="n">
-        <v>148.0924829205252</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.19942867759993</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>179.5197244407509</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>267.836266855725</v>
       </c>
       <c r="V28" t="n">
-        <v>233.7365577809756</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W28" t="n">
         <v>268.1219127937387</v>
       </c>
       <c r="X28" t="n">
-        <v>207.3085698461848</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>161.430894639085</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.8457355557755</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>128.0328771037168</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>127.0199624800789</v>
       </c>
       <c r="G31" t="n">
-        <v>41.77916877344144</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>130.5127428246838</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S31" t="n">
         <v>179.5197244407509</v>
       </c>
       <c r="T31" t="n">
-        <v>203.1464755155369</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>267.836266855725</v>
+        <v>157.5440772705781</v>
       </c>
       <c r="V31" t="n">
-        <v>233.7365577809756</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>268.1219127937387</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>207.3085698461848</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>200.1835678092424</v>
       </c>
     </row>
     <row r="32">
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228.6711534226096</v>
+        <v>505.9338291183053</v>
       </c>
       <c r="C2" t="n">
-        <v>228.6711534226096</v>
+        <v>505.9338291183053</v>
       </c>
       <c r="D2" t="n">
-        <v>52.75671313626202</v>
+        <v>288.9859744676041</v>
       </c>
       <c r="E2" t="n">
-        <v>52.75671313626202</v>
+        <v>41.95291147655119</v>
       </c>
       <c r="F2" t="n">
-        <v>45.81121238705855</v>
+        <v>35.00741072734773</v>
       </c>
       <c r="G2" t="n">
-        <v>30.36882024860223</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>30.36882024860223</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>30.36882024860223</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
         <v>19.56501858889139</v>
@@ -4349,31 +4349,31 @@
         <v>978.2509294445697</v>
       </c>
       <c r="Q2" t="n">
-        <v>969.7703423957685</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="R2" t="n">
-        <v>969.7703423957685</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S2" t="n">
-        <v>969.7703423957685</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="T2" t="n">
-        <v>969.7703423957685</v>
+        <v>752.9668921093582</v>
       </c>
       <c r="U2" t="n">
-        <v>969.7703423957685</v>
+        <v>752.9668921093582</v>
       </c>
       <c r="V2" t="n">
-        <v>969.7703423957685</v>
+        <v>752.9668921093582</v>
       </c>
       <c r="W2" t="n">
-        <v>722.7372794047155</v>
+        <v>752.9668921093582</v>
       </c>
       <c r="X2" t="n">
-        <v>722.7372794047155</v>
+        <v>752.9668921093582</v>
       </c>
       <c r="Y2" t="n">
-        <v>475.7042164136626</v>
+        <v>752.9668921093582</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453.8446512307617</v>
+        <v>281.7914736377709</v>
       </c>
       <c r="C3" t="n">
-        <v>279.3916219496347</v>
+        <v>281.7914736377709</v>
       </c>
       <c r="D3" t="n">
-        <v>279.3916219496347</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="E3" t="n">
-        <v>279.3916219496347</v>
+        <v>132.8570639765196</v>
       </c>
       <c r="F3" t="n">
         <v>132.8570639765196</v>
@@ -4410,49 +4410,49 @@
         <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>19.56501858889139</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>251.2267644261524</v>
+        <v>377.8476075409625</v>
       </c>
       <c r="M3" t="n">
-        <v>309.8793444333311</v>
+        <v>481.6032601595283</v>
       </c>
       <c r="N3" t="n">
-        <v>551.9964494708621</v>
+        <v>723.7203651970593</v>
       </c>
       <c r="O3" t="n">
-        <v>794.1135545083931</v>
+        <v>723.7203651970593</v>
       </c>
       <c r="P3" t="n">
-        <v>978.2509294445697</v>
+        <v>907.8577401332359</v>
       </c>
       <c r="Q3" t="n">
         <v>978.2509294445697</v>
       </c>
       <c r="R3" t="n">
-        <v>978.2509294445697</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="S3" t="n">
-        <v>896.7570582274582</v>
+        <v>877.5769898880285</v>
       </c>
       <c r="T3" t="n">
-        <v>896.7570582274582</v>
+        <v>675.4225686792215</v>
       </c>
       <c r="U3" t="n">
-        <v>896.7570582274582</v>
+        <v>447.1994755532454</v>
       </c>
       <c r="V3" t="n">
-        <v>661.6049499957155</v>
+        <v>281.7914736377709</v>
       </c>
       <c r="W3" t="n">
-        <v>661.6049499957155</v>
+        <v>281.7914736377709</v>
       </c>
       <c r="X3" t="n">
-        <v>661.6049499957155</v>
+        <v>281.7914736377709</v>
       </c>
       <c r="Y3" t="n">
-        <v>453.8446512307617</v>
+        <v>281.7914736377709</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="C4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="D4" t="n">
-        <v>156.0916735427112</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
         <v>19.56501858889139</v>
@@ -4504,34 +4504,34 @@
         <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>156.0916735427112</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="R4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="S4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="T4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="U4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="V4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="W4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="X4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.0916735427112</v>
+        <v>71.5592364780664</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>682.5151428254849</v>
+        <v>309.2697678648297</v>
       </c>
       <c r="C5" t="n">
-        <v>682.5151428254849</v>
+        <v>309.2697678648297</v>
       </c>
       <c r="D5" t="n">
-        <v>682.5151428254849</v>
+        <v>309.2697678648297</v>
       </c>
       <c r="E5" t="n">
-        <v>563.9454371584533</v>
+        <v>43.36872346920688</v>
       </c>
       <c r="F5" t="n">
-        <v>556.9999364092498</v>
+        <v>36.42322272000341</v>
       </c>
       <c r="G5" t="n">
-        <v>291.098892013627</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
@@ -4589,28 +4589,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T5" t="n">
-        <v>682.5151428254849</v>
+        <v>841.0718566560754</v>
       </c>
       <c r="U5" t="n">
-        <v>682.5151428254849</v>
+        <v>841.0718566560754</v>
       </c>
       <c r="V5" t="n">
-        <v>682.5151428254849</v>
+        <v>841.0718566560754</v>
       </c>
       <c r="W5" t="n">
-        <v>682.5151428254849</v>
+        <v>841.0718566560754</v>
       </c>
       <c r="X5" t="n">
-        <v>682.5151428254849</v>
+        <v>841.0718566560754</v>
       </c>
       <c r="Y5" t="n">
-        <v>682.5151428254849</v>
+        <v>575.1708122604525</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.05936271613333</v>
+        <v>831.1265417985674</v>
       </c>
       <c r="C6" t="n">
-        <v>21.05936271613333</v>
+        <v>656.6735125174404</v>
       </c>
       <c r="D6" t="n">
-        <v>21.05936271613333</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613333</v>
+        <v>507.7391028561891</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613333</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I6" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K6" t="n">
-        <v>24.9501803568321</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L6" t="n">
-        <v>265.5537082516946</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="M6" t="n">
-        <v>524.903632156528</v>
+        <v>264.2940185443781</v>
       </c>
       <c r="N6" t="n">
         <v>524.903632156528</v>
@@ -4677,19 +4677,19 @@
         <v>880.4795283993074</v>
       </c>
       <c r="U6" t="n">
-        <v>718.3003278816104</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="V6" t="n">
-        <v>483.1482196498678</v>
+        <v>831.1265417985674</v>
       </c>
       <c r="W6" t="n">
-        <v>228.9108629216662</v>
+        <v>831.1265417985674</v>
       </c>
       <c r="X6" t="n">
-        <v>21.05936271613333</v>
+        <v>831.1265417985674</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.05936271613333</v>
+        <v>831.1265417985674</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K7" t="n">
         <v>21.05936271613333</v>
@@ -4747,28 +4747,28 @@
         <v>182.5089274706535</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.68360465423046</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1162.781045907523</v>
+        <v>1259.660143797817</v>
       </c>
       <c r="C8" t="n">
-        <v>1162.781045907523</v>
+        <v>1259.660143797817</v>
       </c>
       <c r="D8" t="n">
-        <v>804.5153473007729</v>
+        <v>1259.660143797817</v>
       </c>
       <c r="E8" t="n">
-        <v>804.5153473007729</v>
+        <v>1259.660143797817</v>
       </c>
       <c r="F8" t="n">
-        <v>393.5294425111653</v>
+        <v>848.6742390082093</v>
       </c>
       <c r="G8" t="n">
-        <v>379.4745068888075</v>
+        <v>430.5788993454474</v>
       </c>
       <c r="H8" t="n">
-        <v>50.93273932624527</v>
+        <v>102.0371317828852</v>
       </c>
       <c r="I8" t="n">
-        <v>50.93273932624527</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="J8" t="n">
-        <v>155.7591739168702</v>
+        <v>155.759173916871</v>
       </c>
       <c r="K8" t="n">
-        <v>433.6116301659904</v>
+        <v>433.6116301659916</v>
       </c>
       <c r="L8" t="n">
-        <v>830.5887990800921</v>
+        <v>830.5887990800937</v>
       </c>
       <c r="M8" t="n">
-        <v>1288.908934281615</v>
+        <v>1288.908934281617</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.013170883835</v>
+        <v>1740.013170883838</v>
       </c>
       <c r="O8" t="n">
-        <v>2120.790471866533</v>
+        <v>2120.790471866537</v>
       </c>
       <c r="P8" t="n">
-        <v>2408.100705753522</v>
+        <v>2408.100705753526</v>
       </c>
       <c r="Q8" t="n">
-        <v>2546.636966312263</v>
+        <v>2546.636966312268</v>
       </c>
       <c r="R8" t="n">
-        <v>2546.636966312263</v>
+        <v>2546.636966312268</v>
       </c>
       <c r="S8" t="n">
-        <v>2395.829398555499</v>
+        <v>2367.462203181321</v>
       </c>
       <c r="T8" t="n">
-        <v>2176.618952119509</v>
+        <v>2367.462203181321</v>
       </c>
       <c r="U8" t="n">
-        <v>1922.846644232725</v>
+        <v>2367.462203181321</v>
       </c>
       <c r="V8" t="n">
-        <v>1922.846644232725</v>
+        <v>2036.39931583775</v>
       </c>
       <c r="W8" t="n">
-        <v>1922.846644232725</v>
+        <v>2036.39931583775</v>
       </c>
       <c r="X8" t="n">
-        <v>1549.380885971645</v>
+        <v>2036.39931583775</v>
       </c>
       <c r="Y8" t="n">
-        <v>1549.380885971645</v>
+        <v>1646.259983861939</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>850.6803189013111</v>
+        <v>832.020901977507</v>
       </c>
       <c r="C9" t="n">
-        <v>676.2272896201841</v>
+        <v>814.2077782633444</v>
       </c>
       <c r="D9" t="n">
-        <v>527.2928799589329</v>
+        <v>665.2733686020931</v>
       </c>
       <c r="E9" t="n">
-        <v>368.0554249534774</v>
+        <v>506.0359135966377</v>
       </c>
       <c r="F9" t="n">
-        <v>221.5208669803624</v>
+        <v>359.5013556235227</v>
       </c>
       <c r="G9" t="n">
         <v>221.5208669803624</v>
       </c>
       <c r="H9" t="n">
-        <v>115.3984049705805</v>
+        <v>115.3984049705806</v>
       </c>
       <c r="I9" t="n">
-        <v>50.93273932624527</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="J9" t="n">
-        <v>50.93273932624527</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="K9" t="n">
-        <v>295.042091275229</v>
+        <v>204.4730194223255</v>
       </c>
       <c r="L9" t="n">
-        <v>684.6816362225688</v>
+        <v>594.1125643696657</v>
       </c>
       <c r="M9" t="n">
-        <v>1191.351828706382</v>
+        <v>1100.782756853479</v>
       </c>
       <c r="N9" t="n">
-        <v>1727.139086928488</v>
+        <v>1636.570015075586</v>
       </c>
       <c r="O9" t="n">
-        <v>2150.864075413379</v>
+        <v>2060.295003560478</v>
       </c>
       <c r="P9" t="n">
-        <v>2473.937667249962</v>
+        <v>2383.368595397061</v>
       </c>
       <c r="Q9" t="n">
-        <v>2546.636966312263</v>
+        <v>2546.636966312268</v>
       </c>
       <c r="R9" t="n">
-        <v>2510.71355280614</v>
+        <v>2492.054135882336</v>
       </c>
       <c r="S9" t="n">
-        <v>2351.233384742947</v>
+        <v>2332.573967819143</v>
       </c>
       <c r="T9" t="n">
-        <v>2152.071173853959</v>
+        <v>2133.411756930155</v>
       </c>
       <c r="U9" t="n">
-        <v>1923.89691985181</v>
+        <v>1905.237502928006</v>
       </c>
       <c r="V9" t="n">
-        <v>1688.744811620067</v>
+        <v>1670.085394696263</v>
       </c>
       <c r="W9" t="n">
-        <v>1434.507454891866</v>
+        <v>1415.848037968062</v>
       </c>
       <c r="X9" t="n">
-        <v>1226.655954686333</v>
+        <v>1207.996537762529</v>
       </c>
       <c r="Y9" t="n">
-        <v>1018.895655921379</v>
+        <v>1000.236238997575</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.93273932624527</v>
+        <v>664.7886027467914</v>
       </c>
       <c r="C10" t="n">
-        <v>50.93273932624527</v>
+        <v>495.8524198188845</v>
       </c>
       <c r="D10" t="n">
-        <v>50.93273932624527</v>
+        <v>345.7357804065488</v>
       </c>
       <c r="E10" t="n">
-        <v>50.93273932624527</v>
+        <v>197.8226868241557</v>
       </c>
       <c r="F10" t="n">
-        <v>50.93273932624527</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="G10" t="n">
-        <v>50.93273932624527</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="H10" t="n">
-        <v>50.93273932624527</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="I10" t="n">
-        <v>50.93273932624527</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="J10" t="n">
-        <v>50.93273932624527</v>
+        <v>50.93273932624535</v>
       </c>
       <c r="K10" t="n">
-        <v>100.5165538294663</v>
+        <v>100.5165538294666</v>
       </c>
       <c r="L10" t="n">
-        <v>219.4931998867067</v>
+        <v>219.4931998867072</v>
       </c>
       <c r="M10" t="n">
-        <v>355.3265144918554</v>
+        <v>355.3265144918562</v>
       </c>
       <c r="N10" t="n">
-        <v>493.364632899933</v>
+        <v>493.3646328999341</v>
       </c>
       <c r="O10" t="n">
-        <v>604.8488818521892</v>
+        <v>604.8488818521903</v>
       </c>
       <c r="P10" t="n">
-        <v>676.7222341011068</v>
+        <v>676.7222341011081</v>
       </c>
       <c r="Q10" t="n">
-        <v>676.7222341011068</v>
+        <v>676.7222341011081</v>
       </c>
       <c r="R10" t="n">
-        <v>561.1424885067361</v>
+        <v>676.7222341011081</v>
       </c>
       <c r="S10" t="n">
-        <v>561.1424885067361</v>
+        <v>676.7222341011081</v>
       </c>
       <c r="T10" t="n">
-        <v>561.1424885067361</v>
+        <v>664.7886027467914</v>
       </c>
       <c r="U10" t="n">
-        <v>561.1424885067361</v>
+        <v>664.7886027467914</v>
       </c>
       <c r="V10" t="n">
-        <v>561.1424885067361</v>
+        <v>664.7886027467914</v>
       </c>
       <c r="W10" t="n">
-        <v>271.7253184697754</v>
+        <v>664.7886027467914</v>
       </c>
       <c r="X10" t="n">
-        <v>271.7253184697754</v>
+        <v>664.7886027467914</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.93273932624527</v>
+        <v>664.7886027467914</v>
       </c>
     </row>
     <row r="11">
@@ -5036,34 +5036,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5081,7 +5081,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.438140992646</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C13" t="n">
-        <v>542.438140992646</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1290.975829664841</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.493326757864</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="V13" t="n">
-        <v>1241.493326757864</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="W13" t="n">
-        <v>952.0761567209031</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="X13" t="n">
-        <v>724.0866058228858</v>
+        <v>1067.190414454347</v>
       </c>
       <c r="Y13" t="n">
-        <v>724.0866058228858</v>
+        <v>846.3978353108171</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,13 +5312,13 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.9829531089974</v>
+        <v>720.4504516500519</v>
       </c>
       <c r="C16" t="n">
-        <v>527.0467701810908</v>
+        <v>551.5142687221454</v>
       </c>
       <c r="D16" t="n">
-        <v>527.0467701810908</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>379.1336765986977</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
-        <v>379.1336765986977</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
         <v>247.6350999123426</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>720.4504516500519</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.423997082767</v>
+        <v>720.4504516500519</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.6314179392372</v>
+        <v>720.4504516500519</v>
       </c>
     </row>
     <row r="17">
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C19" t="n">
         <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,43 +5680,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>791.4353891154691</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V19" t="n">
-        <v>536.7509009095822</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W19" t="n">
-        <v>247.3337308726216</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.0663679705859</v>
+        <v>247.8029164824587</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>247.8029164824587</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>247.8029164824587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581961</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1152.265668049094</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V22" t="n">
-        <v>1152.265668049094</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="W22" t="n">
-        <v>862.8484980121334</v>
+        <v>696.5850465240061</v>
       </c>
       <c r="X22" t="n">
-        <v>634.8589471141161</v>
+        <v>468.5954956259887</v>
       </c>
       <c r="Y22" t="n">
-        <v>414.0663679705859</v>
+        <v>247.8029164824587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6084,7 +6084,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>271.2493253977866</v>
+        <v>528.6112398310545</v>
       </c>
       <c r="C25" t="n">
-        <v>271.2493253977866</v>
+        <v>378.2620119969378</v>
       </c>
       <c r="D25" t="n">
-        <v>139.7196410792411</v>
+        <v>246.7323276783923</v>
       </c>
       <c r="E25" t="n">
-        <v>139.7196410792411</v>
+        <v>225.520083864406</v>
       </c>
       <c r="F25" t="n">
-        <v>139.7196410792411</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>127.8168586116196</v>
+        <v>127.8168586116195</v>
       </c>
       <c r="K25" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L25" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422077</v>
       </c>
       <c r="M25" t="n">
-        <v>851.9322746968148</v>
+        <v>851.9322746968144</v>
       </c>
       <c r="N25" t="n">
         <v>1140.693458411786</v>
       </c>
       <c r="O25" t="n">
-        <v>1392.785511104607</v>
+        <v>1392.785511104606</v>
       </c>
       <c r="P25" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="R25" t="n">
-        <v>1644.652868057294</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="S25" t="n">
-        <v>1463.319813066636</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="T25" t="n">
-        <v>1258.121352949932</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="U25" t="n">
-        <v>987.5796692572806</v>
+        <v>1374.111184364641</v>
       </c>
       <c r="V25" t="n">
-        <v>751.482136145184</v>
+        <v>1374.111184364641</v>
       </c>
       <c r="W25" t="n">
-        <v>480.6519212020137</v>
+        <v>1103.280969421471</v>
       </c>
       <c r="X25" t="n">
-        <v>271.2493253977866</v>
+        <v>893.8783736172438</v>
       </c>
       <c r="Y25" t="n">
-        <v>271.2493253977866</v>
+        <v>691.672749567504</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>271.249325397786</v>
+        <v>505.1954501871255</v>
       </c>
       <c r="C28" t="n">
-        <v>271.249325397786</v>
+        <v>354.8462223530088</v>
       </c>
       <c r="D28" t="n">
-        <v>271.249325397786</v>
+        <v>354.8462223530088</v>
       </c>
       <c r="E28" t="n">
-        <v>271.249325397786</v>
+        <v>225.520083864406</v>
       </c>
       <c r="F28" t="n">
-        <v>271.249325397786</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>121.6609588113969</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>127.8168586116196</v>
       </c>
       <c r="K28" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L28" t="n">
-        <v>562.148457242208</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M28" t="n">
-        <v>851.9322746968145</v>
+        <v>851.9322746968146</v>
       </c>
       <c r="N28" t="n">
         <v>1140.693458411786</v>
@@ -6409,25 +6409,25 @@
         <v>1644.652868057293</v>
       </c>
       <c r="S28" t="n">
-        <v>1463.319813066636</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="T28" t="n">
-        <v>1258.121352949932</v>
+        <v>1644.652868057293</v>
       </c>
       <c r="U28" t="n">
-        <v>987.5796692572801</v>
+        <v>1374.111184364642</v>
       </c>
       <c r="V28" t="n">
-        <v>751.4821361451834</v>
+        <v>1138.013651252545</v>
       </c>
       <c r="W28" t="n">
-        <v>480.6519212020131</v>
+        <v>867.1834363093745</v>
       </c>
       <c r="X28" t="n">
-        <v>271.249325397786</v>
+        <v>867.1834363093745</v>
       </c>
       <c r="Y28" t="n">
-        <v>271.249325397786</v>
+        <v>664.9778122596347</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6461,25 +6461,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>271.2493253977863</v>
+        <v>637.0265035453921</v>
       </c>
       <c r="C31" t="n">
-        <v>271.2493253977863</v>
+        <v>486.6772757112754</v>
       </c>
       <c r="D31" t="n">
-        <v>271.2493253977863</v>
+        <v>486.6772757112754</v>
       </c>
       <c r="E31" t="n">
-        <v>271.2493253977863</v>
+        <v>357.3511372226725</v>
       </c>
       <c r="F31" t="n">
-        <v>271.2493253977863</v>
+        <v>229.0481448185524</v>
       </c>
       <c r="G31" t="n">
-        <v>229.0481448185523</v>
+        <v>229.0481448185524</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028587</v>
@@ -6622,10 +6622,10 @@
         <v>127.8168586116196</v>
       </c>
       <c r="K31" t="n">
-        <v>296.2193375436549</v>
+        <v>296.2193375436548</v>
       </c>
       <c r="L31" t="n">
-        <v>562.1484572422078</v>
+        <v>562.1484572422079</v>
       </c>
       <c r="M31" t="n">
         <v>851.9322746968146</v>
@@ -6637,34 +6637,34 @@
         <v>1392.785511104607</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.602350397714</v>
+        <v>1587.602350397713</v>
       </c>
       <c r="Q31" t="n">
         <v>1644.652868057293</v>
       </c>
       <c r="R31" t="n">
-        <v>1644.652868057293</v>
+        <v>1552.164719712909</v>
       </c>
       <c r="S31" t="n">
-        <v>1463.319813066636</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="T31" t="n">
-        <v>1258.121352949932</v>
+        <v>1370.831664722251</v>
       </c>
       <c r="U31" t="n">
-        <v>987.5796692572803</v>
+        <v>1211.696233135809</v>
       </c>
       <c r="V31" t="n">
-        <v>751.4821361451836</v>
+        <v>1211.696233135809</v>
       </c>
       <c r="W31" t="n">
-        <v>480.6519212020133</v>
+        <v>1211.696233135809</v>
       </c>
       <c r="X31" t="n">
-        <v>271.2493253977863</v>
+        <v>1002.293637331581</v>
       </c>
       <c r="Y31" t="n">
-        <v>271.2493253977863</v>
+        <v>800.0880132818415</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,13 +6719,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6795,7 +6795,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6944,43 +6944,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7269,7 +7269,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.217138262064</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7582,7 +7582,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.193237080547</v>
@@ -7643,13 +7643,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7670,28 +7670,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7786,7 +7786,7 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
         <v>398.9545963083207</v>
@@ -7798,19 +7798,19 @@
         <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010319</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>136.5653954824675</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>199.3768089554827</v>
+        <v>244.9354681589041</v>
       </c>
       <c r="N3" t="n">
         <v>373.8491954283779</v>
       </c>
       <c r="O3" t="n">
-        <v>385.2788254813443</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9730561082392</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
         <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.806478742992</v>
       </c>
       <c r="M6" t="n">
-        <v>391.5613604636105</v>
+        <v>375.2833119013997</v>
       </c>
       <c r="N6" t="n">
-        <v>118.4674613291454</v>
+        <v>381.7094952808119</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>56.65615996040525</v>
+        <v>56.65615996040506</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>172.9813260500495</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>118.5933767733182</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504511</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>169.2863157167183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>169.2863157167183</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>169.2863157167183</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q45" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>102.0241259032657</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>229.3094480201422</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>139.630106566008</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>36.30997754388602</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>5.299650812560799</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>36.7502040534637</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>142.7750438975494</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>140.9740658984604</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0328771037168</v>
+        <v>107.0327557278703</v>
       </c>
       <c r="F25" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>106.0149587977602</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H25" t="n">
         <v>130.5127428246838</v>
       </c>
       <c r="I25" t="n">
-        <v>92.01815992141962</v>
+        <v>92.01815992141965</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>91.56326686094043</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161.4308946390849</v>
+        <v>3.246356187300904</v>
       </c>
       <c r="C28" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E28" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H28" t="n">
-        <v>106.3133141470838</v>
+        <v>130.5127428246838</v>
       </c>
       <c r="I28" t="n">
-        <v>92.01815992141962</v>
+        <v>92.01815992141965</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>91.56326686094043</v>
+        <v>91.56326686094044</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>179.5197244407509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>207.3085698461848</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161.4308946390849</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>148.8457355557755</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>130.21438747536</v>
       </c>
       <c r="E31" t="n">
-        <v>128.0328771037168</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.0199624800789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.3133141470838</v>
+        <v>148.0924829205252</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.01815992141962</v>
+        <v>92.01815992141965</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>91.56326686094043</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>203.1464755155369</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>110.2921895851469</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>233.7365577809757</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>268.1219127937387</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.1835678092424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="C2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="C2" t="n">
-        <v>164208.3539728566</v>
-      </c>
       <c r="D2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="E2" t="n">
-        <v>156411.6238950836</v>
+        <v>156411.6238950835</v>
       </c>
       <c r="F2" t="n">
         <v>156411.6238950836</v>
@@ -26344,7 +26344,7 @@
         <v>164208.3539728565</v>
       </c>
       <c r="M2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
         <v>164208.3539728567</v>
@@ -26353,7 +26353,7 @@
         <v>164208.3539728566</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>23645.34018189508</v>
       </c>
       <c r="D3" t="n">
-        <v>392050.2114169272</v>
+        <v>392050.2114169283</v>
       </c>
       <c r="E3" t="n">
-        <v>562418.1991553681</v>
+        <v>562418.199155367</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,25 +26381,25 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>14720.86843428189</v>
+        <v>14720.86843428182</v>
       </c>
       <c r="J3" t="n">
         <v>63988.37154589876</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750026</v>
+        <v>4807.454491750084</v>
       </c>
       <c r="L3" t="n">
-        <v>134293.1781648037</v>
+        <v>134293.1781648039</v>
       </c>
       <c r="M3" t="n">
-        <v>144178.0711151431</v>
+        <v>144178.0711151429</v>
       </c>
       <c r="N3" t="n">
-        <v>14720.8684342819</v>
+        <v>14720.86843428183</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>312850.0144568525</v>
       </c>
       <c r="D4" t="n">
-        <v>195179.7627826594</v>
+        <v>195179.762782659</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773398</v>
       </c>
       <c r="I4" t="n">
-        <v>42487.35768913278</v>
+        <v>42487.3576891328</v>
       </c>
       <c r="J4" t="n">
-        <v>42487.35768913277</v>
+        <v>42487.3576891328</v>
       </c>
       <c r="K4" t="n">
-        <v>42487.35768913277</v>
+        <v>42487.35768913276</v>
       </c>
       <c r="L4" t="n">
+        <v>58851.27075905445</v>
+      </c>
+      <c r="M4" t="n">
+        <v>58851.27075905439</v>
+      </c>
+      <c r="N4" t="n">
         <v>58851.2707590544</v>
       </c>
-      <c r="M4" t="n">
-        <v>58851.27075905443</v>
-      </c>
-      <c r="N4" t="n">
-        <v>58851.27075905443</v>
-      </c>
       <c r="O4" t="n">
-        <v>58851.27075905442</v>
+        <v>58851.27075905441</v>
       </c>
       <c r="P4" t="n">
-        <v>58851.27075905443</v>
+        <v>58851.27075905439</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>79865.16362346605</v>
+        <v>79865.16362346614</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="J5" t="n">
-        <v>93534.2868092187</v>
+        <v>93534.28680921868</v>
       </c>
       <c r="K5" t="n">
         <v>93534.2868092187</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289523.3586790067</v>
+        <v>-289523.3586790066</v>
       </c>
       <c r="C6" t="n">
         <v>-222421.4080727242</v>
       </c>
       <c r="D6" t="n">
-        <v>-502886.7838501959</v>
+        <v>-502886.7838501967</v>
       </c>
       <c r="E6" t="n">
-        <v>-534426.3847267352</v>
+        <v>-534523.8438527061</v>
       </c>
       <c r="F6" t="n">
-        <v>27991.81442863298</v>
+        <v>27894.35530266084</v>
       </c>
       <c r="G6" t="n">
-        <v>27991.81442863293</v>
+        <v>27894.35530266076</v>
       </c>
       <c r="H6" t="n">
-        <v>27991.81442863296</v>
+        <v>27894.35530266062</v>
       </c>
       <c r="I6" t="n">
-        <v>7774.854643458239</v>
+        <v>7703.717313498691</v>
       </c>
       <c r="J6" t="n">
-        <v>-41492.64846815867</v>
+        <v>-41563.78579811817</v>
       </c>
       <c r="K6" t="n">
-        <v>17688.2685859901</v>
+        <v>17617.13125603053</v>
       </c>
       <c r="L6" t="n">
-        <v>-126651.200771027</v>
+        <v>-126651.2007710272</v>
       </c>
       <c r="M6" t="n">
-        <v>-136536.0937213661</v>
+        <v>-136536.093721366</v>
       </c>
       <c r="N6" t="n">
-        <v>-7078.891040505041</v>
+        <v>-7078.891040504939</v>
       </c>
       <c r="O6" t="n">
-        <v>7641.97739377676</v>
+        <v>7641.977393776819</v>
       </c>
       <c r="P6" t="n">
-        <v>7641.977393776891</v>
+        <v>7641.977393776804</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>23.01338268678938</v>
       </c>
       <c r="D3" t="n">
-        <v>345.352373188975</v>
+        <v>345.3523731889759</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>636.6592415780658</v>
+        <v>636.6592415780669</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.73080458678834</v>
+        <v>49.73080458678835</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285237</v>
+        <v>18.40108554285229</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>19.33951979354706</v>
       </c>
       <c r="D3" t="n">
-        <v>322.3389905021857</v>
+        <v>322.3389905021866</v>
       </c>
       <c r="E3" t="n">
-        <v>485.0300322651253</v>
+        <v>485.0300322651242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="D4" t="n">
-        <v>373.4172076263993</v>
+        <v>373.4172076264003</v>
       </c>
       <c r="E4" t="n">
-        <v>578.5544016755075</v>
+        <v>578.5544016755061</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>244.5627323611425</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052418</v>
+        <v>18.6793015905244</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076263993</v>
+        <v>373.4172076264001</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755073</v>
+        <v>578.5544016755064</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285228</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>18.67930159052418</v>
       </c>
       <c r="L4" t="n">
-        <v>373.4172076263993</v>
+        <v>373.4172076264003</v>
       </c>
       <c r="M4" t="n">
-        <v>578.5544016755075</v>
+        <v>578.5544016755061</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>180.5277457371988</v>
+        <v>139.9046655164888</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>137.3676377111194</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27400,7 +27400,7 @@
         <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
         <v>148.9413660216818</v>
@@ -27430,7 +27430,7 @@
         <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3444713639914</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>104.6782363562706</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.6752062949112</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3356148920818</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.85745737858723</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>69.04666525310549</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>97.1411973079291</v>
       </c>
       <c r="E4" t="n">
-        <v>11.27257424228756</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>176.9955073465141</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,22 +27622,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>264.5463614619005</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521648</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>75.28528753921178</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>12.91354392781446</v>
       </c>
       <c r="U5" t="n">
         <v>251.3382516189322</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27749,16 +27749,16 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>65.3807169576973</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>183.9411304146927</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27798,7 +27798,7 @@
         <v>90.42516245839144</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>82.68702246598919</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972142</v>
       </c>
       <c r="S7" t="n">
         <v>223.2933741908973</v>
@@ -27831,7 +27831,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
-        <v>109.7505737355692</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>156.9514780432985</v>
+        <v>106.3581295112249</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>62.6580987960966</v>
+        <v>62.65809879609637</v>
       </c>
       <c r="S8" t="n">
-        <v>28.08352342044088</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.0183419716299</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2345848079164</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>155.0735065112947</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.6006837567287</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.47282275457081</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3682127838557</v>
@@ -28032,7 +28032,7 @@
         <v>136.7221855746496</v>
       </c>
       <c r="J10" t="n">
-        <v>49.32958329223575</v>
+        <v>49.32958329223563</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>34.01383490015915</v>
+        <v>34.01383490015902</v>
       </c>
       <c r="R10" t="n">
-        <v>34.86759343886266</v>
+        <v>149.2915415772896</v>
       </c>
       <c r="S10" t="n">
         <v>213.1634750959351</v>
       </c>
       <c r="T10" t="n">
-        <v>225.284677700432</v>
+        <v>213.4703826596584</v>
       </c>
       <c r="U10" t="n">
         <v>286.2850602706034</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="C25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="D25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="E25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="F25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="G25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="H25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="I25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="M25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="N25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="P25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="S25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="T25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="U25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="V25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="W25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="X25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
     </row>
     <row r="26">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="C28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="D28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="E28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="F28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="G28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="H28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="I28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="M28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="N28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="P28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="S28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="T28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="U28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="V28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="W28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="X28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="C31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="D31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="E31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="F31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="G31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="H31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="I31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="J31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="K31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="L31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="M31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="N31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="O31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="P31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="S31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="T31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="U31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="V31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="W31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="X31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.40108554285236</v>
+        <v>18.40108554285234</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.388351249000904</v>
+        <v>1.388351249000907</v>
       </c>
       <c r="H8" t="n">
-        <v>14.21845222883051</v>
+        <v>14.21845222883054</v>
       </c>
       <c r="I8" t="n">
-        <v>53.52441152710739</v>
+        <v>53.52441152710753</v>
       </c>
       <c r="J8" t="n">
-        <v>117.8345768198906</v>
+        <v>117.8345768198909</v>
       </c>
       <c r="K8" t="n">
-        <v>176.6034851900988</v>
+        <v>176.6034851900993</v>
       </c>
       <c r="L8" t="n">
-        <v>219.0922397267103</v>
+        <v>219.0922397267109</v>
       </c>
       <c r="M8" t="n">
-        <v>243.7823312511301</v>
+        <v>243.7823312511307</v>
       </c>
       <c r="N8" t="n">
-        <v>247.7269842373539</v>
+        <v>247.7269842373546</v>
       </c>
       <c r="O8" t="n">
-        <v>233.9215665051012</v>
+        <v>233.9215665051018</v>
       </c>
       <c r="P8" t="n">
-        <v>199.6466450453914</v>
+        <v>199.6466450453919</v>
       </c>
       <c r="Q8" t="n">
-        <v>149.9263159405464</v>
+        <v>149.9263159405468</v>
       </c>
       <c r="R8" t="n">
-        <v>87.21101914505309</v>
+        <v>87.21101914505331</v>
       </c>
       <c r="S8" t="n">
-        <v>31.63705408660812</v>
+        <v>31.63705408660821</v>
       </c>
       <c r="T8" t="n">
-        <v>6.077507592501458</v>
+        <v>6.077507592501474</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1110680999200723</v>
+        <v>0.1110680999200726</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7428334064819463</v>
+        <v>0.7428334064819483</v>
       </c>
       <c r="H9" t="n">
-        <v>7.174206846812483</v>
+        <v>7.174206846812502</v>
       </c>
       <c r="I9" t="n">
-        <v>25.57562386352316</v>
+        <v>25.57562386352322</v>
       </c>
       <c r="J9" t="n">
-        <v>70.18146670626145</v>
+        <v>70.18146670626163</v>
       </c>
       <c r="K9" t="n">
-        <v>119.9513049405518</v>
+        <v>119.9513049405521</v>
       </c>
       <c r="L9" t="n">
-        <v>161.2893324030209</v>
+        <v>161.2893324030213</v>
       </c>
       <c r="M9" t="n">
-        <v>188.2170433879914</v>
+        <v>188.2170433879919</v>
       </c>
       <c r="N9" t="n">
-        <v>193.1985884691796</v>
+        <v>193.1985884691801</v>
       </c>
       <c r="O9" t="n">
-        <v>176.7389640413427</v>
+        <v>176.7389640413432</v>
       </c>
       <c r="P9" t="n">
-        <v>141.8486002254868</v>
+        <v>141.8486002254871</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.82203272916915</v>
+        <v>94.82203272916941</v>
       </c>
       <c r="R9" t="n">
-        <v>46.12083202701069</v>
+        <v>46.12083202701081</v>
       </c>
       <c r="S9" t="n">
-        <v>13.79780472127649</v>
+        <v>13.79780472127653</v>
       </c>
       <c r="T9" t="n">
-        <v>2.994139914723283</v>
+        <v>2.994139914723291</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04887061884749649</v>
+        <v>0.04887061884749662</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6227665746030696</v>
+        <v>0.6227665746030713</v>
       </c>
       <c r="H10" t="n">
-        <v>5.53696099965275</v>
+        <v>5.536960999652766</v>
       </c>
       <c r="I10" t="n">
-        <v>18.72828935260868</v>
+        <v>18.72828935260873</v>
       </c>
       <c r="J10" t="n">
-        <v>44.02959682443702</v>
+        <v>44.02959682443714</v>
       </c>
       <c r="K10" t="n">
-        <v>72.35415294024753</v>
+        <v>72.35415294024773</v>
       </c>
       <c r="L10" t="n">
-        <v>92.58840510053275</v>
+        <v>92.588405100533</v>
       </c>
       <c r="M10" t="n">
-        <v>97.62149132618845</v>
+        <v>97.6214913261887</v>
       </c>
       <c r="N10" t="n">
-        <v>95.30027045721344</v>
+        <v>95.3002704572137</v>
       </c>
       <c r="O10" t="n">
-        <v>88.02522456298665</v>
+        <v>88.02522456298688</v>
       </c>
       <c r="P10" t="n">
-        <v>75.32078644108395</v>
+        <v>75.32078644108415</v>
       </c>
       <c r="Q10" t="n">
-        <v>52.14820835153523</v>
+        <v>52.14820835153537</v>
       </c>
       <c r="R10" t="n">
-        <v>28.00184979987984</v>
+        <v>28.00184979987991</v>
       </c>
       <c r="S10" t="n">
-        <v>10.85312294103713</v>
+        <v>10.85312294103716</v>
       </c>
       <c r="T10" t="n">
-        <v>2.660911727849479</v>
+        <v>2.660911727849486</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0339690858874402</v>
+        <v>0.03396908588744029</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34369,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
         <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>59.24503031028146</v>
+        <v>104.8036895137028</v>
       </c>
       <c r="N3" t="n">
         <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>185.9973484203803</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988654</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>261.9696201058924</v>
+        <v>245.6915715436816</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
         <v>263.0434990833253</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>105.885287465278</v>
+        <v>105.8852874652783</v>
       </c>
       <c r="K8" t="n">
-        <v>280.659046716283</v>
+        <v>280.6590467162835</v>
       </c>
       <c r="L8" t="n">
-        <v>400.9870393071735</v>
+        <v>400.9870393071741</v>
       </c>
       <c r="M8" t="n">
-        <v>462.9496315166899</v>
+        <v>462.9496315166905</v>
       </c>
       <c r="N8" t="n">
-        <v>455.6608450527472</v>
+        <v>455.6608450527478</v>
       </c>
       <c r="O8" t="n">
-        <v>384.6235363461598</v>
+        <v>384.6235363461604</v>
       </c>
       <c r="P8" t="n">
-        <v>290.2123574616045</v>
+        <v>290.2123574616049</v>
       </c>
       <c r="Q8" t="n">
-        <v>139.9356167260016</v>
+        <v>139.935616726002</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>246.5751029787714</v>
+        <v>155.0911920162426</v>
       </c>
       <c r="L9" t="n">
-        <v>393.5752979266059</v>
+        <v>393.5752979266063</v>
       </c>
       <c r="M9" t="n">
-        <v>511.788073215973</v>
+        <v>511.7880732159734</v>
       </c>
       <c r="N9" t="n">
-        <v>541.1992507293998</v>
+        <v>541.1992507294003</v>
       </c>
       <c r="O9" t="n">
-        <v>428.0050388736278</v>
+        <v>428.0050388736283</v>
       </c>
       <c r="P9" t="n">
-        <v>326.3369614510937</v>
+        <v>326.3369614510941</v>
       </c>
       <c r="Q9" t="n">
-        <v>73.43363541646583</v>
+        <v>164.917546378997</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>50.08466111436468</v>
+        <v>50.08466111436488</v>
       </c>
       <c r="L10" t="n">
-        <v>120.1784303608489</v>
+        <v>120.1784303608491</v>
       </c>
       <c r="M10" t="n">
-        <v>137.205368288029</v>
+        <v>137.2053682880293</v>
       </c>
       <c r="N10" t="n">
-        <v>139.432442836442</v>
+        <v>139.4324428364423</v>
       </c>
       <c r="O10" t="n">
-        <v>112.6103524770263</v>
+        <v>112.6103524770266</v>
       </c>
       <c r="P10" t="n">
-        <v>72.59934570597744</v>
+        <v>72.59934570597764</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.90885570841789</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K25" t="n">
         <v>170.1035140727629</v>
@@ -36528,13 +36528,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O25" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P25" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.62678551472712</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.90885570841789</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K28" t="n">
         <v>170.1035140727629</v>
@@ -36765,13 +36765,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O28" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P28" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.62678551472712</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.90885570841789</v>
+        <v>30.90885570841787</v>
       </c>
       <c r="K31" t="n">
         <v>170.1035140727629</v>
@@ -37002,13 +37002,13 @@
         <v>291.677963348456</v>
       </c>
       <c r="O31" t="n">
-        <v>254.6384370634553</v>
+        <v>254.6384370634552</v>
       </c>
       <c r="P31" t="n">
         <v>196.7846861546531</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.62678551472712</v>
+        <v>57.6267855147271</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595513</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221117</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>257.2993485017925</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>257.2993485017925</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>257.2993485017925</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q45" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
